--- a/upload_temp/file.xlsx
+++ b/upload_temp/file.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="11840"/>
+    <workbookView windowHeight="15240"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="33">
   <si>
     <t>姓名</t>
   </si>
@@ -25,27 +25,27 @@
     <t>部门</t>
   </si>
   <si>
-    <t>职位</t>
-  </si>
-  <si>
-    <t>张三</t>
-  </si>
-  <si>
-    <t>保卫科</t>
+    <t>职务</t>
+  </si>
+  <si>
+    <t>李四</t>
+  </si>
+  <si>
+    <t>13817921335</t>
+  </si>
+  <si>
+    <t>信息科</t>
   </si>
   <si>
     <t>副主任</t>
   </si>
   <si>
-    <t>李四</t>
-  </si>
-  <si>
-    <t>信息科</t>
-  </si>
-  <si>
     <t>王五</t>
   </si>
   <si>
+    <t>13817921336</t>
+  </si>
+  <si>
     <t>麻醉科</t>
   </si>
   <si>
@@ -55,6 +55,9 @@
     <t>赵六</t>
   </si>
   <si>
+    <t>13817921337</t>
+  </si>
+  <si>
     <t>儿科</t>
   </si>
   <si>
@@ -64,7 +67,52 @@
     <t>老刘</t>
   </si>
   <si>
+    <t>13817921339</t>
+  </si>
+  <si>
     <t>主治医师</t>
+  </si>
+  <si>
+    <t>郑惠斌</t>
+  </si>
+  <si>
+    <t>13817921334</t>
+  </si>
+  <si>
+    <t>外科</t>
+  </si>
+  <si>
+    <t>医师</t>
+  </si>
+  <si>
+    <t>lili</t>
+  </si>
+  <si>
+    <t>13917119648</t>
+  </si>
+  <si>
+    <t>传染科</t>
+  </si>
+  <si>
+    <t>主管护师</t>
+  </si>
+  <si>
+    <t>hanah</t>
+  </si>
+  <si>
+    <t>王五以</t>
+  </si>
+  <si>
+    <t>赵六的</t>
+  </si>
+  <si>
+    <t>刘坤</t>
+  </si>
+  <si>
+    <t>艾尼</t>
+  </si>
+  <si>
+    <t>Simth</t>
   </si>
 </sst>
 </file>
@@ -74,18 +122,32 @@
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
-    <font>
-      <sz val="11"/>
+  <fonts count="22">
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -100,6 +162,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -108,10 +178,95 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -130,101 +285,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -245,6 +307,156 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -257,169 +469,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -442,24 +504,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -475,6 +519,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -485,6 +538,21 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -516,174 +584,169 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1003,28 +1066,30 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9.64285714285714" defaultRowHeight="17.6" outlineLevelCol="3"/>
   <cols>
-    <col min="2" max="2" width="12.9230769230769"/>
+    <col min="2" max="2" width="12.8571428571429" customWidth="1"/>
+    <col min="3" max="3" width="11.4642857142857" customWidth="1"/>
+    <col min="4" max="4" width="10.1428571428571" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1032,70 +1097,168 @@
       <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="B2">
-        <v>13817921334</v>
+      <c r="B2" t="s">
+        <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3">
-        <v>13817921335</v>
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4">
-        <v>13817921336</v>
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5">
-        <v>13817921337</v>
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8">
+        <v>13817921325</v>
+      </c>
+      <c r="C8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9">
+        <v>13817921226</v>
+      </c>
+      <c r="C9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10">
+        <v>13817921327</v>
+      </c>
+      <c r="C10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" t="s">
         <v>15</v>
       </c>
-      <c r="B6">
-        <v>13817921339</v>
-      </c>
-      <c r="C6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" t="s">
-        <v>16</v>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11">
+        <v>13817921329</v>
+      </c>
+      <c r="C11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12">
+        <v>13817921324</v>
+      </c>
+      <c r="C12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13">
+        <v>13917119628</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/upload_temp/file.xlsx
+++ b/upload_temp/file.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="15240"/>
+    <workbookView windowWidth="28800" windowHeight="11580"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="42">
   <si>
     <t>姓名</t>
   </si>
@@ -73,46 +73,73 @@
     <t>主治医师</t>
   </si>
   <si>
+    <t>王五以</t>
+  </si>
+  <si>
+    <t>13817921226</t>
+  </si>
+  <si>
+    <t>赵六的</t>
+  </si>
+  <si>
+    <t>13817921327</t>
+  </si>
+  <si>
+    <t>刘坤</t>
+  </si>
+  <si>
+    <t>13817921329</t>
+  </si>
+  <si>
+    <t>艾尼</t>
+  </si>
+  <si>
+    <t>13817921324</t>
+  </si>
+  <si>
+    <t>外科</t>
+  </si>
+  <si>
+    <t>医师</t>
+  </si>
+  <si>
+    <t>Simth</t>
+  </si>
+  <si>
+    <t>13917119628</t>
+  </si>
+  <si>
+    <t>传染科</t>
+  </si>
+  <si>
+    <t>主管护师</t>
+  </si>
+  <si>
     <t>郑惠斌</t>
   </si>
   <si>
-    <t>13817921334</t>
-  </si>
-  <si>
-    <t>外科</t>
-  </si>
-  <si>
-    <t>医师</t>
+    <t>1002</t>
+  </si>
+  <si>
+    <t>hanah</t>
+  </si>
+  <si>
+    <t>1001</t>
   </si>
   <si>
     <t>lili</t>
   </si>
   <si>
-    <t>13917119648</t>
-  </si>
-  <si>
-    <t>传染科</t>
-  </si>
-  <si>
-    <t>主管护师</t>
-  </si>
-  <si>
-    <t>hanah</t>
-  </si>
-  <si>
-    <t>王五以</t>
-  </si>
-  <si>
-    <t>赵六的</t>
-  </si>
-  <si>
-    <t>刘坤</t>
-  </si>
-  <si>
-    <t>艾尼</t>
-  </si>
-  <si>
-    <t>Simth</t>
+    <t>1003</t>
+  </si>
+  <si>
+    <t>asdasd</t>
+  </si>
+  <si>
+    <t>13817911221</t>
+  </si>
+  <si>
+    <t>郑会宾</t>
   </si>
 </sst>
 </file>
@@ -120,10 +147,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -162,18 +189,26 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -185,6 +220,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
@@ -192,17 +258,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -216,9 +274,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -226,43 +291,12 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -277,16 +311,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -307,85 +334,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -397,91 +496,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -504,6 +531,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -519,15 +564,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -538,21 +574,6 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -584,11 +605,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -597,142 +624,142 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1066,17 +1093,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.64285714285714" defaultRowHeight="17.6" outlineLevelCol="3"/>
   <cols>
+    <col min="1" max="1" width="8" customWidth="1"/>
     <col min="2" max="2" width="12.8571428571429" customWidth="1"/>
-    <col min="3" max="3" width="11.4642857142857" customWidth="1"/>
-    <col min="4" max="4" width="10.1428571428571" customWidth="1"/>
+    <col min="3" max="3" width="8" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1157,108 +1184,136 @@
         <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="D7" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>27</v>
-      </c>
-      <c r="B8">
-        <v>13817921325</v>
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D8" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
         <v>28</v>
-      </c>
-      <c r="B9">
-        <v>13817921226</v>
-      </c>
-      <c r="C9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
         <v>29</v>
       </c>
-      <c r="B10">
-        <v>13817921327</v>
+      <c r="B10" t="s">
+        <v>30</v>
       </c>
       <c r="C10" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="D10" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>30</v>
-      </c>
-      <c r="B11">
-        <v>13817921329</v>
+        <v>33</v>
+      </c>
+      <c r="B11" t="s">
+        <v>34</v>
       </c>
       <c r="C11" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>31</v>
-      </c>
-      <c r="B12">
-        <v>13817921324</v>
+        <v>35</v>
+      </c>
+      <c r="B12" t="s">
+        <v>36</v>
       </c>
       <c r="C12" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" t="s">
         <v>32</v>
       </c>
-      <c r="B13">
-        <v>13917119628</v>
-      </c>
-      <c r="C13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" t="s">
-        <v>26</v>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15">
+        <v>13817921334</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
